--- a/primeiraRevisao (version 1).xlsx
+++ b/primeiraRevisao (version 1).xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3EE5A-7C09-4D40-9644-D8998CCF9AE2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95E8C3-8E09-4D62-9F69-721F674D9C3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
   <si>
     <t>Colocar CNPJ na busca</t>
   </si>
@@ -136,6 +137,30 @@
   </si>
   <si>
     <t>Editar Pedido</t>
+  </si>
+  <si>
+    <t>Historico Pedidos</t>
+  </si>
+  <si>
+    <t>Historico Pedidos Internos (PI)</t>
+  </si>
+  <si>
+    <t>Retirar pedido confirmado e colocar Ordem de Compra (Número pedido do cliente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca pela Ordem de compra (número do pedido do cliente) </t>
+  </si>
+  <si>
+    <t>Informações gerais</t>
+  </si>
+  <si>
+    <t>retirar relaório de pedidos não confirmados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabelas </t>
+  </si>
+  <si>
+    <t>Trocar todas por barras</t>
   </si>
 </sst>
 </file>
@@ -527,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -846,10 +871,76 @@
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39B3896-CB89-4C8F-8EEE-A5FDCF9C72A8}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="73.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>